--- a/All Documents/Internship Work Flow/Internship Roadmap - Jakia Rahman (Intern-MIS).xlsx
+++ b/All Documents/Internship Work Flow/Internship Roadmap - Jakia Rahman (Intern-MIS).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\Internship Task Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\SQA-Internship-Progress-in-HPL\All Documents\Internship Work Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23A494A-44C5-4C79-BD04-2A843A03FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E02A496-C89F-43E5-86BC-0440CA6B414A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Phase</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Automate websites using Selenium</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +315,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -378,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -423,6 +432,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -708,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,8 +821,8 @@
       <c r="F8" s="8">
         <v>45911</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>10</v>
+      <c r="G8" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -830,8 +842,8 @@
       <c r="F9" s="8">
         <v>45911</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>10</v>
+      <c r="G9" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,8 +863,8 @@
       <c r="F10" s="8">
         <v>45911</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>10</v>
+      <c r="G10" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,8 +905,8 @@
       <c r="F12" s="8">
         <v>45909</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>45</v>
+      <c r="G12" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -914,8 +926,8 @@
       <c r="F13" s="8">
         <v>45909</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>45</v>
+      <c r="G13" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/All Documents/Internship Work Flow/Internship Roadmap - Jakia Rahman (Intern-MIS).xlsx
+++ b/All Documents/Internship Work Flow/Internship Roadmap - Jakia Rahman (Intern-MIS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\SQA-Internship-Progress-in-HPL\All Documents\Internship Work Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E02A496-C89F-43E5-86BC-0440CA6B414A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36EE09C-23E3-4273-88DA-F90E1C4FA482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Phase</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Selenium, VS Code</t>
   </si>
   <si>
-    <t>Phase 4 – Load Testing k6 + Grafana</t>
-  </si>
-  <si>
     <t>Load Testing with k6</t>
   </si>
   <si>
@@ -130,12 +127,6 @@
   </si>
   <si>
     <t>Build and execute load tests</t>
-  </si>
-  <si>
-    <t>JMeter</t>
-  </si>
-  <si>
-    <t>Phase 5 – Load Testing Jmeter</t>
   </si>
   <si>
     <t>3 Month Learning Roadmap - JavaScript &amp; QA Tracking</t>
@@ -178,9 +169,6 @@
   </si>
   <si>
     <t>Continuous GitHub Updates</t>
-  </si>
-  <si>
-    <t>Phase 6 – GitHub Tracking &amp; Wrap-up</t>
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLgH5QX0i9K3qzryglMjcyEktz4q7ySunX</t>
@@ -225,6 +213,33 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Phase 4 – Selenium Automation</t>
+  </si>
+  <si>
+    <t>Phase 5 – Load Testing k6 + Grafana</t>
+  </si>
+  <si>
+    <t>Phase 6 – Load Testing Jmeter</t>
+  </si>
+  <si>
+    <t>Phase 7 – GitHub Tracking &amp; Wrap-up</t>
+  </si>
+  <si>
+    <t>Automation testing with playwright</t>
+  </si>
+  <si>
+    <t>Playwright Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playwright </t>
+  </si>
+  <si>
+    <t>Jmeter</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -272,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -422,6 +443,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,7 +458,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,26 +763,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,7 +809,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -792,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8">
         <v>45901</v>
@@ -801,11 +828,11 @@
         <v>45922</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
@@ -821,14 +848,14 @@
       <c r="F8" s="8">
         <v>45911</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>45</v>
+      <c r="G8" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -842,14 +869,14 @@
       <c r="F9" s="8">
         <v>45911</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>50</v>
+      <c r="G9" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -863,14 +890,14 @@
       <c r="F10" s="8">
         <v>45911</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>50</v>
+      <c r="G10" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
@@ -884,12 +911,12 @@
       <c r="F11" s="8">
         <v>45911</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>10</v>
+      <c r="G11" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -897,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8">
         <v>45904</v>
@@ -905,12 +932,12 @@
       <c r="F12" s="8">
         <v>45909</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>50</v>
+      <c r="G12" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -918,7 +945,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" s="8">
         <v>45904</v>
@@ -926,13 +953,13 @@
       <c r="F13" s="8">
         <v>45909</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>50</v>
+      <c r="G13" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
@@ -961,7 +988,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>28</v>
@@ -976,74 +1003,100 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="9">
-        <v>45956</v>
-      </c>
-      <c r="F16" s="9">
-        <v>45967</v>
+        <v>53</v>
+      </c>
+      <c r="E16" s="8">
+        <v>45946</v>
+      </c>
+      <c r="F16" s="8">
+        <v>45955</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="8">
-        <v>45970</v>
-      </c>
-      <c r="F17" s="8">
-        <v>45981</v>
+        <v>31</v>
+      </c>
+      <c r="E17" s="9">
+        <v>45956</v>
+      </c>
+      <c r="F17" s="9">
+        <v>45967</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="9">
-        <v>45901</v>
-      </c>
-      <c r="F18" s="9">
-        <v>45991</v>
+        <v>54</v>
+      </c>
+      <c r="E18" s="8">
+        <v>45970</v>
+      </c>
+      <c r="F18" s="8">
+        <v>45981</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="9">
+        <v>45901</v>
+      </c>
+      <c r="F19" s="9">
+        <v>45991</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/All Documents/Internship Work Flow/Internship Roadmap - Jakia Rahman (Intern-MIS).xlsx
+++ b/All Documents/Internship Work Flow/Internship Roadmap - Jakia Rahman (Intern-MIS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\SQA-Internship-Progress-in-HPL\All Documents\Internship Work Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36EE09C-23E3-4273-88DA-F90E1C4FA482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51FA3CE-D7DE-47A5-9D06-99885D61AEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Build and execute load tests</t>
   </si>
   <si>
-    <t>3 Month Learning Roadmap - JavaScript &amp; QA Tracking</t>
-  </si>
-  <si>
     <r>
       <t>Duration:</t>
     </r>
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLgH5QX0i9K3qzryglMjcyEktz4q7ySunX</t>
-  </si>
-  <si>
-    <t>Started</t>
   </si>
   <si>
     <t xml:space="preserve">Excel </t>
@@ -240,6 +234,12 @@
   </si>
   <si>
     <t>Ongoing</t>
+  </si>
+  <si>
+    <t>3 Months Learning Roadmap - JavaScript &amp; QA Tracking</t>
+  </si>
+  <si>
+    <t>Started</t>
   </si>
 </sst>
 </file>
@@ -320,12 +320,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +443,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,12 +462,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,26 +763,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -819,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8">
         <v>45901</v>
@@ -827,12 +827,12 @@
       <c r="F7" s="8">
         <v>45922</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>41</v>
+      <c r="G7" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
@@ -848,14 +848,14 @@
       <c r="F8" s="8">
         <v>45911</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>55</v>
+      <c r="G8" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -869,14 +869,14 @@
       <c r="F9" s="8">
         <v>45911</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>46</v>
+      <c r="G9" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -890,14 +890,14 @@
       <c r="F10" s="8">
         <v>45911</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>46</v>
+      <c r="G10" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
@@ -911,12 +911,12 @@
       <c r="F11" s="8">
         <v>45911</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>46</v>
+      <c r="G11" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -924,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="8">
         <v>45904</v>
@@ -932,12 +932,12 @@
       <c r="F12" s="8">
         <v>45909</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>46</v>
+      <c r="G12" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
@@ -945,7 +945,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8">
         <v>45904</v>
@@ -953,13 +953,13 @@
       <c r="F13" s="8">
         <v>45909</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>46</v>
+      <c r="G13" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
@@ -976,8 +976,8 @@
       <c r="F14" s="8">
         <v>45935</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>10</v>
+      <c r="G14" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>28</v>
@@ -999,22 +999,22 @@
       <c r="F15" s="8">
         <v>45945</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E16" s="8">
         <v>45946</v>
@@ -1022,13 +1022,13 @@
       <c r="F16" s="8">
         <v>45955</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>29</v>
@@ -1045,13 +1045,13 @@
       <c r="F17" s="9">
         <v>45967</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>32</v>
@@ -1060,7 +1060,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="8">
         <v>45970</v>
@@ -1068,19 +1068,19 @@
       <c r="F18" s="8">
         <v>45981</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>25</v>
@@ -1091,12 +1091,12 @@
       <c r="F19" s="9">
         <v>45991</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>55</v>
+      <c r="G19" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
